--- a/biology/Médecine/Système_tégumentaire/Système_tégumentaire.xlsx
+++ b/biology/Médecine/Système_tégumentaire/Système_tégumentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_t%C3%A9gumentaire</t>
+          <t>Système_tégumentaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système tégumentaire (du latin tegere, couvrir) désigne en zoologie et en anatomie, un tissu biologique situé à l'interface du milieu intérieur et du milieu extérieur d'un organisme. C'est tout ce qui concerne le revêtement externe du corps (peau, poils, cheveux, ongles, écailles, carapace, plumes, etc.). Le système tégumentaire forme la couche externe de l'organisme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_t%C3%A9gumentaire</t>
+          <t>Système_tégumentaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les mammifères, le système tégumentaire comprend la peau et les phanères (poils, ongles, griffes). La peau contient des récepteurs sensoriels (à la pression, à la température, de la douleur), et des glandes sudoripares et sébacées.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_t%C3%A9gumentaire</t>
+          <t>Système_tégumentaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système tégumentaire est une interface entre le corps et l'environnement. À ce titre, il a trois rôles principaux :
 communication : par le biais des récepteurs sensoriels, l'organisme est informé de la nature de son environnement direct ; en outre, l'apparence générale du tégument communique de manière indirecte aux autres individus des informations permettant d'estimer l'état de santé ou le vieillissement de l'organisme.
